--- a/Docs/Funding/GEF5/OUTCOME 3_2018 - DH.xlsx
+++ b/Docs/Funding/GEF5/OUTCOME 3_2018 - DH.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>ACTIVITY CODE</t>
   </si>
@@ -135,12 +135,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>BUDGET NOTES YR1</t>
-  </si>
-  <si>
-    <t>COST YR1 ($)</t>
-  </si>
-  <si>
     <t>3.1a</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>2 weeks WWF time(@4373/month); 1 trip (@500)</t>
   </si>
   <si>
-    <t>Consultant fees for first year, including field work, imagery and hardware; 1 month WWF time; 1 trip; 1 workshop; full field sampling (40 points)</t>
-  </si>
-  <si>
     <t>Consultant fees for first year for literature review on carbon offsetting methodologies</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
   </si>
   <si>
     <t>Q2 (Apr-June)</t>
-  </si>
-  <si>
-    <t>Progress reports indicating progress toward devising a carbon methodology using remote sensing and field baselines</t>
   </si>
   <si>
     <t>Q2           (June)</t>
@@ -404,10 +392,19 @@
     <t>Q3 (July-Sept)</t>
   </si>
   <si>
-    <t>3.1b (DH 2018)</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>BUDGET NOTES YR2</t>
+  </si>
+  <si>
+    <t>COST YR2 ($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1b </t>
+  </si>
+  <si>
+    <t>Consultant (Dugal Harris) fees for 2nd year, including field work, imagery, data analysis and development of method for remote sensing of carbon stocks</t>
+  </si>
+  <si>
+    <t>Progress reports indicating progress toward devising a carbon methodology using remote sensing and field baselines.  Final report end of 2018.</t>
   </si>
 </sst>
 </file>
@@ -421,7 +418,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,14 +456,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -620,7 +609,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,9 +706,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -773,10 +768,10 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -786,108 +781,93 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -895,10 +875,16 @@
     <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -908,104 +894,104 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1015,25 +1001,22 @@
     <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,6 +1024,52 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1678,12 +1707,12 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1691,7 +1720,7 @@
     <col min="1" max="1" width="19.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="43.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="41" customWidth="1"/>
     <col min="5" max="5" width="9" style="7" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
@@ -1707,11 +1736,10 @@
     <col min="17" max="17" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="7" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1740,32 +1768,31 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -1773,243 +1800,239 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="10"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:40" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+    <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="B3" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="H3" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="111" t="s">
+      <c r="I3" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:39" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="1:40" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51">
+      <c r="C4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48">
         <v>4473</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="48">
         <v>4473.0370370370374</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="48">
         <v>2237</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51">
-        <v>2237</v>
-      </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="105">
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="81"/>
+      <c r="M4" s="102">
         <v>11183.333333333334</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="92">
         <v>11183</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="15"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
+      <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="16"/>
       <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="16"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="16"/>
     </row>
-    <row r="5" spans="1:40" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:39" s="120" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="51">
+      <c r="D5" s="118"/>
+      <c r="E5" s="119">
         <f>(24300+41700)/13.5</f>
         <v>4888.8888888888887</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="119">
         <f>50400/13.5</f>
         <v>3733.3333333333335</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="119">
         <f>25200/13.5</f>
         <v>1866.6666666666667</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="118">
         <f>50400/13.5</f>
         <v>3733.3333333333335</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="119">
         <f>63000/13.5</f>
         <v>4666.666666666667</v>
       </c>
-      <c r="J5" s="114">
+      <c r="J5" s="118">
         <f>52894.5/13.5</f>
         <v>3918.1111111111113</v>
       </c>
-      <c r="K5" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="84">
+      <c r="K5" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="131">
+        <f>SUM(G5:J5)</f>
+        <v>14184.777777777779</v>
+      </c>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124">
         <f>SUM(E5:J5)</f>
         <v>22807</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="16"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="128"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="128"/>
     </row>
-    <row r="6" spans="1:40" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="105">
+    <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="102">
         <v>8946.6666666666661</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="92">
         <v>8947</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="15"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
       <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
+      <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
@@ -2021,62 +2044,57 @@
       <c r="AG6" s="17"/>
       <c r="AH6" s="17"/>
       <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
+      <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="16"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="16"/>
     </row>
-    <row r="7" spans="1:40" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51">
+      <c r="D7" s="47"/>
+      <c r="E7" s="48">
         <v>1118.2592592592594</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="48">
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="48">
         <v>1618.2592592592594</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="48">
         <v>0</v>
       </c>
-      <c r="I7" s="51">
-        <v>1618.2592592592594</v>
-      </c>
-      <c r="J7" s="51">
-        <v>0</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="84"/>
-      <c r="M7" s="105">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="81"/>
+      <c r="M7" s="102">
         <v>18920</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="92">
         <f>M7</f>
         <v>18920</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="15"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
+      <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
@@ -2085,165 +2103,159 @@
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="16"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="16"/>
     </row>
-    <row r="8" spans="1:40" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="83">
+    <row r="8" spans="1:39" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="83"/>
+      <c r="M8" s="80">
         <f>SUM(M4:M7)</f>
         <v>39050</v>
       </c>
-      <c r="N8" s="97">
+      <c r="N8" s="94">
         <f>SUM(N4:N7)</f>
         <v>39050</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="60">
+      <c r="O8" s="56"/>
+      <c r="P8" s="57">
         <f>P5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="60" t="e">
+      <c r="Q8" s="57" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="39"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
       <c r="AL8" s="39"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="39"/>
+      <c r="AM8" s="37"/>
     </row>
-    <row r="9" spans="1:40" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="39"/>
+    <row r="9" spans="1:39" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
       <c r="AL9" s="39"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="39"/>
+      <c r="AM9" s="37"/>
     </row>
-    <row r="10" spans="1:40" ht="345" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51">
+    <row r="10" spans="1:39" ht="345" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48">
         <v>20000</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="48">
         <v>10000</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="48">
         <v>5000</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="48">
         <v>5000</v>
       </c>
-      <c r="I10" s="51">
-        <v>5000</v>
-      </c>
-      <c r="J10" s="51">
-        <v>5000</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="105">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="102">
         <f>SUM(P10:S10)</f>
         <v>43700</v>
       </c>
-      <c r="N10" s="96"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53">
+      <c r="N10" s="93"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50">
         <v>40000</v>
       </c>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="61">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="58">
         <v>2000</v>
       </c>
-      <c r="S10" s="61">
+      <c r="S10" s="58">
         <v>1700</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="15"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
@@ -2255,46 +2267,45 @@
       <c r="AG10" s="17"/>
       <c r="AH10" s="17"/>
       <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
+      <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
     </row>
-    <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="105">
+    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="102">
         <v>1119</v>
       </c>
-      <c r="N11" s="98">
+      <c r="N11" s="95">
         <f>M11</f>
         <v>1119</v>
       </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
@@ -2306,46 +2317,45 @@
       <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
+      <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
     </row>
-    <row r="12" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="105">
+    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="102">
         <v>1118</v>
       </c>
-      <c r="N12" s="98">
+      <c r="N12" s="95">
         <f>M12</f>
         <v>1118</v>
       </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
@@ -2357,46 +2367,45 @@
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
       <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
+      <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
     </row>
-    <row r="13" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="49" t="s">
+    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="105">
+      <c r="B13" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="102">
         <v>1118</v>
       </c>
-      <c r="N13" s="98">
+      <c r="N13" s="95">
         <f>M13</f>
         <v>1118</v>
       </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="15"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
@@ -2408,58 +2417,55 @@
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
       <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
+      <c r="AJ13" s="24"/>
       <c r="AK13" s="24"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
     </row>
-    <row r="14" spans="1:40" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="64">
+      <c r="D14" s="47"/>
+      <c r="E14" s="61">
         <v>2963</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="61">
         <v>2222</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="61">
         <v>1556</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64">
-        <v>1556</v>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="105">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="86"/>
+      <c r="M14" s="102">
         <v>19556</v>
       </c>
-      <c r="N14" s="99"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61">
+      <c r="N14" s="96"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58">
         <f>M14</f>
         <v>19556</v>
       </c>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="26"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
+      <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28"/>
@@ -2471,37 +2477,36 @@
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
+      <c r="AJ14" s="27"/>
       <c r="AK14" s="27"/>
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
     </row>
-    <row r="15" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
+    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="24"/>
       <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
@@ -2510,57 +2515,56 @@
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
       <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
     </row>
-    <row r="16" spans="1:40" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="90"/>
-      <c r="M16" s="82">
+    <row r="16" spans="1:39" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="87"/>
+      <c r="M16" s="79">
         <f>SUM(M10:M14)</f>
         <v>66611</v>
       </c>
-      <c r="N16" s="100">
+      <c r="N16" s="97">
         <f>SUM(N11:N13)</f>
         <v>3355</v>
       </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65">
+      <c r="O16" s="62"/>
+      <c r="P16" s="62">
         <f>SUM(P10:P14)</f>
         <v>59556</v>
       </c>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65">
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62">
         <f>R10</f>
         <v>2000</v>
       </c>
-      <c r="S16" s="65">
+      <c r="S16" s="62">
         <f>S10</f>
         <v>1700</v>
       </c>
       <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="30"/>
       <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
@@ -2569,66 +2573,63 @@
       <c r="AD16" s="31"/>
       <c r="AE16" s="31"/>
       <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
+      <c r="AG16" s="32"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
+      <c r="AJ16" s="30"/>
       <c r="AK16" s="30"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
     </row>
-    <row r="17" spans="1:40" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="62">
+    <row r="17" spans="1:39" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="59">
         <v>5318</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="59">
         <f>E17</f>
         <v>5318</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="59">
         <v>5319</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62">
-        <v>5319</v>
-      </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="107">
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="86"/>
+      <c r="M17" s="104">
         <f>SUM(O17:S17)</f>
         <v>38866</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="61">
+      <c r="N17" s="96"/>
+      <c r="O17" s="58">
         <v>31910</v>
       </c>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61">
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58">
         <v>5000</v>
       </c>
-      <c r="S17" s="61">
+      <c r="S17" s="58">
         <v>1956</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="15"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="16"/>
       <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
+      <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
@@ -2640,46 +2641,45 @@
       <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
+      <c r="AJ17" s="16"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
     </row>
-    <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="107">
+    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="104">
         <f>O18</f>
         <v>2963</v>
       </c>
-      <c r="N18" s="99"/>
-      <c r="O18" s="61">
+      <c r="N18" s="96"/>
+      <c r="O18" s="58">
         <v>2963</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="15"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
+      <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
@@ -2691,46 +2691,45 @@
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
+      <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
     </row>
-    <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="107">
+    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="104">
         <f>N19</f>
         <v>13420</v>
       </c>
-      <c r="N19" s="98">
+      <c r="N19" s="95">
         <v>13420</v>
       </c>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="16"/>
       <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
+      <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
@@ -2742,46 +2741,45 @@
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
+      <c r="AJ19" s="16"/>
       <c r="AK19" s="16"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
     </row>
-    <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="49" t="s">
+    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="107">
+      <c r="B20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="104">
         <f>N20</f>
         <v>25390</v>
       </c>
-      <c r="N20" s="98">
+      <c r="N20" s="95">
         <v>25390</v>
       </c>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="15"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
+      <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
@@ -2793,46 +2791,45 @@
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
+      <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
     </row>
-    <row r="21" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="107">
+    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="104">
         <f>N21</f>
         <v>20250</v>
       </c>
-      <c r="N21" s="98">
+      <c r="N21" s="95">
         <v>20250</v>
       </c>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="16"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
@@ -2844,46 +2841,45 @@
       <c r="AG21" s="17"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
+      <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
     </row>
-    <row r="22" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="107">
+    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="104">
         <f>N22</f>
         <v>14947</v>
       </c>
-      <c r="N22" s="98">
+      <c r="N22" s="95">
         <v>14947</v>
       </c>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="14"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="26"/>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
+      <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
       <c r="AA22" s="34"/>
@@ -2895,46 +2891,45 @@
       <c r="AG22" s="34"/>
       <c r="AH22" s="34"/>
       <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
+      <c r="AJ22" s="26"/>
       <c r="AK22" s="26"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
     </row>
-    <row r="23" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="107">
+    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="104">
         <f>N23</f>
         <v>9000</v>
       </c>
-      <c r="N23" s="98">
+      <c r="N23" s="95">
         <v>9000</v>
       </c>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="24"/>
       <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
@@ -2943,57 +2938,56 @@
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
       <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
       <c r="AL23" s="24"/>
       <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
     </row>
-    <row r="24" spans="1:40" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="86"/>
-      <c r="M24" s="59">
+    <row r="24" spans="1:39" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="83"/>
+      <c r="M24" s="56">
         <f>SUM(M17:M23)</f>
         <v>124836</v>
       </c>
-      <c r="N24" s="97">
+      <c r="N24" s="94">
         <f>SUM(N19:N23)</f>
         <v>83007</v>
       </c>
-      <c r="O24" s="60">
+      <c r="O24" s="57">
         <f>SUM(O17:O18)</f>
         <v>34873</v>
       </c>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60">
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57">
         <f>R17</f>
         <v>5000</v>
       </c>
-      <c r="S24" s="60">
+      <c r="S24" s="57">
         <f>S17</f>
         <v>1956</v>
       </c>
-      <c r="T24" s="35"/>
-      <c r="U24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="30"/>
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+      <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -3005,54 +2999,53 @@
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
       <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
+      <c r="AJ24" s="30"/>
       <c r="AK24" s="30"/>
       <c r="AL24" s="30"/>
       <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
     </row>
-    <row r="25" spans="1:40" ht="210" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="67">
+    <row r="25" spans="1:39" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="64">
         <v>3259</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="64">
         <v>741</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="107">
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="86"/>
+      <c r="M25" s="104">
         <f>O25+L25</f>
         <v>222726</v>
       </c>
-      <c r="N25" s="99"/>
-      <c r="O25" s="61">
+      <c r="N25" s="96"/>
+      <c r="O25" s="58">
         <v>222726</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
       <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="24"/>
       <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
@@ -3064,262 +3057,254 @@
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
       <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
+      <c r="AJ25" s="24"/>
       <c r="AK25" s="24"/>
       <c r="AL25" s="24"/>
       <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
     </row>
-    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="89"/>
-      <c r="M26" s="107">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="86"/>
+      <c r="M26" s="104">
         <f>SUM(O26:S26)</f>
         <v>7859</v>
       </c>
-      <c r="N26" s="99"/>
-      <c r="O26" s="61">
+      <c r="N26" s="96"/>
+      <c r="O26" s="58">
         <v>3700</v>
       </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="69">
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="66">
         <v>3370</v>
       </c>
-      <c r="S26" s="53">
+      <c r="S26" s="50">
         <v>789</v>
       </c>
       <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
+      <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
     </row>
-    <row r="27" spans="1:40" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="55" t="s">
+    <row r="27" spans="1:39" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="89"/>
-      <c r="M27" s="107">
+      <c r="C27" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="86"/>
+      <c r="M27" s="104">
         <f>O27</f>
         <v>8964</v>
       </c>
-      <c r="N27" s="99"/>
-      <c r="O27" s="61">
+      <c r="N27" s="96"/>
+      <c r="O27" s="58">
         <v>8964</v>
       </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
       <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
+      <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
     </row>
-    <row r="28" spans="1:40" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="67">
+    <row r="28" spans="1:39" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="64">
         <v>5926</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="64">
         <v>3703</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="64">
         <v>4096</v>
       </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="67">
-        <v>4096</v>
-      </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="91"/>
-      <c r="M28" s="107">
+      <c r="H28" s="69"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="88"/>
+      <c r="M28" s="104">
         <f>O28</f>
         <v>41175</v>
       </c>
-      <c r="N28" s="101"/>
-      <c r="O28" s="74">
+      <c r="N28" s="98"/>
+      <c r="O28" s="71">
         <v>41175</v>
       </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
       <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
     </row>
-    <row r="29" spans="1:40" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" s="106">
+    <row r="29" spans="1:39" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="103">
         <f>O29</f>
         <v>36278</v>
       </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="69">
+      <c r="N29" s="99"/>
+      <c r="O29" s="66">
         <v>36278</v>
       </c>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
     </row>
-    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="81"/>
-      <c r="M30" s="83">
+    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="78"/>
+      <c r="M30" s="80">
         <f t="shared" ref="M30:S30" si="0">SUM(M25:M29)</f>
         <v>317002</v>
       </c>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81">
+      <c r="N30" s="78"/>
+      <c r="O30" s="78">
         <f t="shared" si="0"/>
         <v>312843</v>
       </c>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81">
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78">
         <f t="shared" si="0"/>
         <v>3370</v>
       </c>
-      <c r="S30" s="81">
+      <c r="S30" s="78">
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
@@ -3327,10 +3312,10 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AD4:AI4"/>
+    <mergeCell ref="AG7:AI7"/>
     <mergeCell ref="G2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
